--- a/Economic complexity/data/older versions/ECI and PCI scores.xlsx
+++ b/Economic complexity/data/older versions/ECI and PCI scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Centre for Cities\Research programme\Business &amp; Enterprise\Economic complexity\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosaromerogomez/Development/centre-for-cities-data-demo/Economic complexity/data/older versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D85FDD-6F7B-4D66-A70D-946CF7202621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5489D17-E4F1-434E-8298-6260AAA0328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{58555B69-6FBD-4B80-88D0-3BFD68E2C88D}"/>
+    <workbookView xWindow="1300" yWindow="760" windowWidth="32140" windowHeight="19940" activeTab="6" xr2:uid="{58555B69-6FBD-4B80-88D0-3BFD68E2C88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data extract from R -&gt;" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -913,7 +923,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -945,7 +955,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -972,12 +982,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFA6C61C-1C7C-441F-92A7-EBDA22D54BA6}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{3006F09C-3E12-FE41-8D82-12D536AF5BC2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1010,7 +1020,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1042,7 +1052,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1074,7 +1084,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1106,7 +1116,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1138,7 +1148,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1165,12 +1175,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EE5E396-799C-4475-B623-070E84EFDCA0}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{170E3867-0754-DC47-92A7-FAA60E803A05}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1203,7 +1213,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1230,12 +1240,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97442D17-CE52-4147-B02D-AA56DF913F12}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{5DB5FACF-9E03-DF49-A85F-BA97AF5FD063}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1268,7 +1278,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1300,7 +1310,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1327,12 +1337,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{344D9D54-9509-40A3-AE1E-CA714B53AC10}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{4DED9920-7248-7048-B1CD-F0164F61EE50}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1365,7 +1375,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1397,7 +1407,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1429,7 +1439,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1461,7 +1471,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1493,7 +1503,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1525,7 +1535,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1557,7 +1567,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1589,7 +1599,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1616,12 +1626,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25F70053-64EC-41B7-9C6B-C9C59D12453F}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{D40B4134-8FAB-F34C-9775-0A2482C48F59}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1654,7 +1664,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1686,7 +1696,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1718,7 +1728,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1750,7 +1760,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1777,12 +1787,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39779B6A-6BE9-4756-80B7-9CB9D31B90ED}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{A243E178-E37C-4B47-92B5-34989A6E537C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1815,7 +1825,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1853,7 +1863,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1880,12 +1890,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A523243F-0590-45BC-B510-8AFFCD27D348}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{526F15E6-7856-9C42-B89F-A1FF31F7908B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1913,12 +1923,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31147503-3470-4B9E-BA63-DD2CFCDBD7E2}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{4EB57205-0044-1345-8E0B-FB8BB3272856}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1946,12 +1956,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCC5919D-E1CD-4C17-97A2-B84704A75255}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{D2E1120C-CC2B-E747-88AC-CE70B970EC2B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1984,7 +1994,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2016,7 +2026,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2043,12 +2053,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F4B981F-264B-4642-B9CA-638348A46CE1}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{F5006681-1A8F-7E4C-A216-5252689C5D47}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2081,7 +2091,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2113,7 +2123,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2151,7 +2161,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2183,7 +2193,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2210,12 +2220,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{564310F4-1B5E-4BE7-92DB-C447A195778E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{B7D685DF-873D-1A43-9038-CBD3EA43B60C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2248,7 +2258,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2280,7 +2290,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2312,7 +2322,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2344,7 +2354,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2376,7 +2386,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2403,12 +2413,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2462DCE2-8E38-4DCF-B9D2-EAC8A08C5FA6}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{279A518F-28CC-C04F-99A5-4007DD354F59}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2436,12 +2446,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{938DD1B1-3E46-4661-8383-C5EB6F596C21}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{D94D5816-0223-3644-AA05-39D5F38C899C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2474,7 +2484,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2506,7 +2516,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2538,7 +2548,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2570,7 +2580,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2597,12 +2607,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C231450E-6D13-4546-BC31-049A19469292}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{310C1A2B-8497-8748-87F4-AC2E2C389E33}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2630,12 +2640,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D79CCEE9-B0D4-4EAA-9658-B2C2BC6F2991}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{74D5ADD8-ACF6-B649-BC7D-08DB1374B1C2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2668,7 +2678,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2700,7 +2710,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2732,7 +2742,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2764,7 +2774,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2791,12 +2801,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AC04A09-A075-4DF9-BA31-8A6DEA54F44A}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{0C1F2E11-A986-2F42-8A9F-99E85C60CB23}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2829,7 +2839,7 @@
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2856,12 +2866,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AFD192E-96DE-45AA-8F61-A000EC553A4D}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{109B9DD9-7144-2D45-814B-CBF30DEA2586}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4763,7 +4773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4773,23 +4783,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5AAF4A-BC9C-4D40-B6F4-DCF26770A84E}">
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4816,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4842,7 +4852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4878,7 +4888,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4896,7 +4906,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4932,7 +4942,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +5008,7 @@
         <v>612: Wireless telecommunications activities</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5010,7 +5020,7 @@
         <v>722: Research and experimental development on social sciences and humanities</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>661: Activities auxiliary to financial services, except insurance and pension funding</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>639: Other information service activities</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>591: Motion picture, video and television programme activities</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5058,7 +5068,7 @@
         <v>702: Management consultancy activities</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>649: Other financial service activities, except insurance and pension funding</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>662: Activities auxiliary to insurance and pension funding</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5094,7 +5104,7 @@
         <v>743: Translation and interpretation activities</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>651: Insurance</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>267: Manufacture of optical instruments and photographic equipment</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -5130,7 +5140,7 @@
         <v>613: Satellite telecommunications activities</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -5142,7 +5152,7 @@
         <v>619: Other telecommunications activities</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>264: Manufacture of consumer electronics</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5166,7 +5176,7 @@
         <v>601: Radio broadcasting</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5178,7 +5188,7 @@
         <v>721: Research and experimental development on natural sciences and engineering</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -5190,7 +5200,7 @@
         <v>352: Manufacture of gas; distribution of gaseous fuels through mains</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>182: Reproduction of recorded media</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>742: Photographic activities</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -5226,7 +5236,7 @@
         <v>266: Manufacture of irradiation, electromedical and electrotherapeutic equipment</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5238,7 +5248,7 @@
         <v>701: Activities of head offices</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -5250,7 +5260,7 @@
         <v>262: Manufacture of computers and peripheral equipment</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5272,7 @@
         <v>611: Wired telecommunications activities</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>741: Specialised design activities</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>642: Activities of holding companies</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -5298,7 +5308,7 @@
         <v>641: Monetary intermediation</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -5310,7 +5320,7 @@
         <v>592: Sound recording and music publishing activities</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5322,7 +5332,7 @@
         <v>321: Manufacture of jewellery, bijouterie and related articles</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -5334,7 +5344,7 @@
         <v>749: Other professional, scientific and technical activities n.e.c.</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -5346,7 +5356,7 @@
         <v>254: Manufacture of weapons and ammunition</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>322: Manufacture of musical instruments</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>61: Extraction of crude petroleum</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -5382,7 +5392,7 @@
         <v>265: Manufacture of instruments and appliances for measuring, testing and navigation; watches and clocks</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>353: Steam and air conditioning supply</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -5406,7 +5416,7 @@
         <v>325: Manufacture of medical and dental instruments and supplies</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>301: Building of ships and boats</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>351: Electric power generation, transmission and distribution</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -5442,7 +5452,7 @@
         <v>141: Manufacture of wearing apparel, except fur apparel</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -5454,7 +5464,7 @@
         <v>23: Gathering of wild growing non-wood products</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>522: Support activities for transportation</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5478,7 +5488,7 @@
         <v>261: Manufacture of electronic components and boards</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>324: Manufacture of games and toys</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>274: Manufacture of electric lighting equipment</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>212: Manufacture of pharmaceutical preparations</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5526,7 +5536,7 @@
         <v>151: Tanning and dressing of leather; manufacture of luggage, handbags, saddlery and harness;dressing and dyeing of fur</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>273: Manufacture of wiring and wiring devices</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -5550,7 +5560,7 @@
         <v>152: Manufacture of footwear</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -5562,7 +5572,7 @@
         <v>32: Aquaculture</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>91: Support activities for petroleum and natural gas extraction</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -5586,7 +5596,7 @@
         <v>104: Manufacture of vegetable and animal oils and fats</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5598,7 +5608,7 @@
         <v>271: Manufacture of electric motors, generators, transformers and electricity distribution and control apparatus</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>204: Manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -5622,7 +5632,7 @@
         <v>303: Manufacture of air and spacecraft and related machinery</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>275: Manufacture of domestic appliances</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>99: Support activities for other mining and quarrying</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>205: Manufacture of other chemical products</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -5670,7 +5680,7 @@
         <v>263: Manufacture of communication equipment</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -5682,7 +5692,7 @@
         <v>211: Manufacture of basic pharmaceutical products</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -5694,7 +5704,7 @@
         <v>181: Printing and service activities related to printing</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -5706,7 +5716,7 @@
         <v>24: Support services to forestry</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>62: Extraction of natural gas</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>203: Manufacture of paints, varnishes and similar coatings, printing ink and mastics</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -5742,7 +5752,7 @@
         <v>291: Manufacture of motor vehicles</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>279: Manufacture of other electrical equipment</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -5766,7 +5776,7 @@
         <v>31: Fishing</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>202: Manufacture of pesticides and other agrochemical products</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>329: Other manufacturing</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -5802,7 +5812,7 @@
         <v>281: Manufacture of general purpose machinery</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>192: Manufacture of refined petroleum products</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>21: Silviculture and other forestry activities</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>284: Manufacture of metal forming machinery and machine tools</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -5850,7 +5860,7 @@
         <v>323: Manufacture of sports goods</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -5862,7 +5872,7 @@
         <v>120: Manufacture of tobacco products</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>143: Manufacture of knitted and crocheted apparel</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>237: Cutting, shaping and finishing of stone</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>107: Manufacture of bakery and farinaceous products</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5910,7 +5920,7 @@
         <v>106: Manufacture of grain mill products, starches and starch products</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -5922,7 +5932,7 @@
         <v>257: Manufacture of cutlery, tools and general hardware</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>304: Manufacture of military fighting vehicles</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5946,7 +5956,7 @@
         <v>102: Processing and preserving of fish, crustaceans and molluscs</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>310: Manufacture of furniture</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>206: Manufacture of man-made fibres</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>272: Manufacture of batteries and accumulators</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5994,7 +6004,7 @@
         <v>16: Support activities to agriculture and post-harvest crop activities</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>110: Manufacture of beverages</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -6018,7 +6028,7 @@
         <v>162: Manufacture of products of wood, cork, straw and plaiting materials</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>22: Logging</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>132: Weaving of textiles</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>512: Freight air transport and space transport</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6066,7 +6076,7 @@
         <v>282: Manufacture of other general-purpose machinery</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -6078,7 +6088,7 @@
         <v>133: Finishing of textiles</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -6090,7 +6100,7 @@
         <v>17: Hunting, trapping and related service activities</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -6102,7 +6112,7 @@
         <v>289: Manufacture of other special-purpose machinery</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>172: Manufacture of articles of paper and paperboard</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>231: Manufacture of glass and glass products</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -6138,7 +6148,7 @@
         <v>253: Manufacture of steam generators, except central heating hot water boilers</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -6150,7 +6160,7 @@
         <v>171: Manufacture of pulp, paper and paperboard</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>105: Manufacture of dairy products</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -6174,7 +6184,7 @@
         <v>139: Manufacture of other textiles</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -6186,7 +6196,7 @@
         <v>81: Quarrying of stone, sand and clay</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -6198,7 +6208,7 @@
         <v>10: DEFRA/Scottish Executive Agricultural Data</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>103: Processing and preserving of fruit and vegetables</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>256: Treatment and coating of metals; machining</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>109: Manufacture of prepared animal feeds</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>191: Manufacture of coke oven products</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -6258,7 +6268,7 @@
         <v>521: Warehousing and storage</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -6270,7 +6280,7 @@
         <v>302: Manufacture of railway locomotives and rolling stock</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -6282,7 +6292,7 @@
         <v>234: Manufacture of other porcelain and ceramic products</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>233: Manufacture of clay building materials</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>221: Manufacture of rubber products</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -6318,7 +6328,7 @@
         <v>108: Manufacture of other food products</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>309: Manufacture of transport equipment n.e.c.</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -6342,7 +6352,7 @@
         <v>89: Mining and quarrying n.e.c.</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>255: Forging, pressing, stamping and roll-forming of metal; powder metallurgy</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>142: Manufacture of articles of fur</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -6378,7 +6388,7 @@
         <v>293: Manufacture of parts and accessories for motor vehicles</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -6390,7 +6400,7 @@
         <v>222: Manufacture of plastics products</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>161: Sawmilling and planing of wood</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -6414,7 +6424,7 @@
         <v>292: Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semitrailers</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -6426,7 +6436,7 @@
         <v>251: Manufacture of structural metal products</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>239: Manufacture of abrasive products and non-metallic mineral products n.e.c.</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>283: Manufacture of agricultural and forestry machinery</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -6462,7 +6472,7 @@
         <v>236: Manufacture of articles of concrete, cement and plaster</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>235: Manufacture of cement, lime and plaster</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -6486,7 +6496,7 @@
         <v>131: Preparation and spinning of textile fibres</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>242: Manufacture of tubes, pipes, hollow profiles and related fittings, of steel</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -6510,7 +6520,7 @@
         <v>259: Manufacture of other fabricated metal products</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -6522,7 +6532,7 @@
         <v>245: Casting of metals</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -6534,7 +6544,7 @@
         <v>243: Manufacture of other products of first processing of steel</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>244: Manufacture of basic precious and other non-ferrous metals</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -6558,7 +6568,7 @@
         <v>201: Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -6570,7 +6580,7 @@
         <v>252: Manufacture of tanks, reservoirs and containers of metal</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -6582,7 +6592,7 @@
         <v>101: Processing and preserving of meat and production of meat products</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>241: Manufacture of basic iron and steel and of ferro-alloys</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -6606,7 +6616,7 @@
         <v>232: Manufacture of refractory products</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -6620,7 +6630,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:C148" xr:uid="{91B3B785-36A6-4137-AAEF-ED8D3981C577}">
-    <sortState ref="A3:C148">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C148">
       <sortCondition descending="1" ref="B2:B148"/>
     </sortState>
   </autoFilter>
@@ -6637,9 +6647,9 @@
       <selection activeCell="E17" sqref="A17:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>215</v>
       </c>
@@ -6657,9 +6667,9 @@
       <selection activeCell="C3" sqref="C3:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -6670,7 +6680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
@@ -6681,7 +6691,7 @@
         <v>-2.1051306460032202</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>153</v>
       </c>
@@ -6692,7 +6702,7 @@
         <v>-1.8870948989267728</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>154</v>
       </c>
@@ -6703,7 +6713,7 @@
         <v>-1.8469710885342761</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>155</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>-1.7296716766027733</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>156</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>-1.6900648089396173</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>157</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>-1.3361681388158804</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>158</v>
       </c>
@@ -6747,7 +6757,7 @@
         <v>-1.336078842527908</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>159</v>
       </c>
@@ -6758,7 +6768,7 @@
         <v>-1.247670708712165</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>-1.0680452220498657</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>161</v>
       </c>
@@ -6780,7 +6790,7 @@
         <v>-1.0493279522947356</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
@@ -6791,7 +6801,7 @@
         <v>-1.0294333851629918</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>163</v>
       </c>
@@ -6802,7 +6812,7 @@
         <v>-1.0103988296609536</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>164</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>-0.88719299114123551</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>165</v>
       </c>
@@ -6824,7 +6834,7 @@
         <v>-0.84321005551344286</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>166</v>
       </c>
@@ -6835,7 +6845,7 @@
         <v>-0.75241561036659588</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>167</v>
       </c>
@@ -6846,7 +6856,7 @@
         <v>-0.72131695840408772</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>168</v>
       </c>
@@ -6857,7 +6867,7 @@
         <v>-0.68163020195486101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>169</v>
       </c>
@@ -6868,7 +6878,7 @@
         <v>-0.67867493170696325</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>170</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>-0.62374773225468871</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>171</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>-0.60892647294023683</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>172</v>
       </c>
@@ -6901,7 +6911,7 @@
         <v>-0.60309157735744445</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>173</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>-0.53545519774233019</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>174</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>-0.41403126604925972</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -6934,7 +6944,7 @@
         <v>-0.39111329176291454</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>176</v>
       </c>
@@ -6945,7 +6955,7 @@
         <v>-0.25908641061163212</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>177</v>
       </c>
@@ -6956,7 +6966,7 @@
         <v>-0.24366485570163107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>178</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>-0.21852736079403198</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>179</v>
       </c>
@@ -6978,7 +6988,7 @@
         <v>-0.1871906070578456</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>180</v>
       </c>
@@ -6989,7 +6999,7 @@
         <v>-0.11828049067494771</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>181</v>
       </c>
@@ -7000,7 +7010,7 @@
         <v>-7.7207882229381034E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>182</v>
       </c>
@@ -7011,7 +7021,7 @@
         <v>3.0585089073378119E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>183</v>
       </c>
@@ -7022,7 +7032,7 @@
         <v>0.33373728904925654</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>184</v>
       </c>
@@ -7033,7 +7043,7 @@
         <v>0.3537402224050798</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>185</v>
       </c>
@@ -7044,7 +7054,7 @@
         <v>0.35616357889909106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>186</v>
       </c>
@@ -7055,7 +7065,7 @@
         <v>0.37604031576554181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>187</v>
       </c>
@@ -7066,7 +7076,7 @@
         <v>0.39939518403763286</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>188</v>
       </c>
@@ -7077,7 +7087,7 @@
         <v>0.41624973342560562</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>189</v>
       </c>
@@ -7088,7 +7098,7 @@
         <v>0.46938540360640713</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>190</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>0.51717819755199368</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>191</v>
       </c>
@@ -7110,7 +7120,7 @@
         <v>0.56767223919945353</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>192</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>0.56819430056957421</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>193</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>0.6264545299582065</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>194</v>
       </c>
@@ -7143,7 +7153,7 @@
         <v>0.67415549328879398</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>195</v>
       </c>
@@ -7154,7 +7164,7 @@
         <v>0.68254883449358983</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>196</v>
       </c>
@@ -7165,7 +7175,7 @@
         <v>0.69180329203474455</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>197</v>
       </c>
@@ -7176,7 +7186,7 @@
         <v>0.72286245948209971</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>0.79240824706679291</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>199</v>
       </c>
@@ -7198,7 +7208,7 @@
         <v>0.81138121892195303</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>200</v>
       </c>
@@ -7209,7 +7219,7 @@
         <v>0.82461541467044153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>201</v>
       </c>
@@ -7220,7 +7230,7 @@
         <v>0.83404858475568433</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>202</v>
       </c>
@@ -7231,7 +7241,7 @@
         <v>0.92412632021995855</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>203</v>
       </c>
@@ -7242,7 +7252,7 @@
         <v>0.95071636941155435</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>204</v>
       </c>
@@ -7253,7 +7263,7 @@
         <v>1.0553329941717362</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>205</v>
       </c>
@@ -7264,7 +7274,7 @@
         <v>1.1207055599273676</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>206</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>1.3965445227493409</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>207</v>
       </c>
@@ -7286,7 +7296,7 @@
         <v>1.4034971615229603</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>208</v>
       </c>
@@ -7297,7 +7307,7 @@
         <v>1.4840227834866149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>209</v>
       </c>
@@ -7308,7 +7318,7 @@
         <v>1.5787192424799756</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>210</v>
       </c>
@@ -7319,7 +7329,7 @@
         <v>1.6024754291846606</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>211</v>
       </c>
@@ -7330,7 +7340,7 @@
         <v>1.6872137025071301</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>212</v>
       </c>
@@ -7354,9 +7364,9 @@
       <selection activeCell="B2" sqref="B2:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -7367,7 +7377,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>186</v>
       </c>
@@ -7378,7 +7388,7 @@
         <v>-0.19748590165285282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>210</v>
       </c>
@@ -7389,7 +7399,7 @@
         <v>0.90430188411629031</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -7400,7 +7410,7 @@
         <v>-1.3832138083957737</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -7411,7 +7421,7 @@
         <v>-0.37154168393379439</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -7422,7 +7432,7 @@
         <v>-0.43999349322475401</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -7433,7 +7443,7 @@
         <v>-0.76544111996291875</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>-0.60602339013726625</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -7455,7 +7465,7 @@
         <v>-0.77453305363552416</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -7466,7 +7476,7 @@
         <v>0.33383764379498709</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>-0.96781765326728797</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>1.6669461168057351</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>192</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>1.0624583237024592</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -7510,7 +7520,7 @@
         <v>-1.0069332815101679</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -7521,7 +7531,7 @@
         <v>1.8491946087239033</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -7532,7 +7542,7 @@
         <v>0.9542555341661787</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>-0.72304559916793065</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>1.1036216774057213</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>-1.0582961303523823</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -7576,7 +7586,7 @@
         <v>-1.0137647209873355</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -7587,7 +7597,7 @@
         <v>0.31088750104758317</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -7598,7 +7608,7 @@
         <v>2.1902356638507969</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -7609,7 +7619,7 @@
         <v>0.51107860777053005</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>1.4415502594991065</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -7631,7 +7641,7 @@
         <v>-0.42770442876891379</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -7642,7 +7652,7 @@
         <v>-1.3196078395639765</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -7653,7 +7663,7 @@
         <v>-0.90002293361971519</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>197</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>0.33584738349943738</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -7675,7 +7685,7 @@
         <v>0.88097455141053349</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -7686,7 +7696,7 @@
         <v>-0.70425373926491663</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -7697,7 +7707,7 @@
         <v>0.42078225507879308</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -7708,7 +7718,7 @@
         <v>2.9607452408322366</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -7719,7 +7729,7 @@
         <v>-2.1891861603829704E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -7730,7 +7740,7 @@
         <v>0.40893427072680272</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -7741,7 +7751,7 @@
         <v>-0.96442320819758076</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>171</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>-1.1815674261365081</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>0.12614537542789361</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -7774,7 +7784,7 @@
         <v>-0.43006704137495949</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -7785,7 +7795,7 @@
         <v>-0.90241092150438984</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -7796,7 +7806,7 @@
         <v>-0.41254850898521822</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>200</v>
       </c>
@@ -7807,7 +7817,7 @@
         <v>0.12510075611661711</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -7818,7 +7828,7 @@
         <v>3.3186867201585743E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>1.9471416189454371</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>193</v>
       </c>
@@ -7840,7 +7850,7 @@
         <v>0.40532386021013644</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -7851,7 +7861,7 @@
         <v>-0.42099673511185454</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -7862,7 +7872,7 @@
         <v>0.20983203021713787</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -7873,7 +7883,7 @@
         <v>-0.63083710569310802</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -7884,7 +7894,7 @@
         <v>1.8229969594229194</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -7895,7 +7905,7 @@
         <v>-0.76014818076301149</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>204</v>
       </c>
@@ -7906,7 +7916,7 @@
         <v>0.80608998773252527</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -7917,7 +7927,7 @@
         <v>0.17259214433421882</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -7928,7 +7938,7 @@
         <v>2.8019988682130931E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -7939,7 +7949,7 @@
         <v>-1.3449472929733948</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>-0.9817179928003491</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -7961,7 +7971,7 @@
         <v>-1.1181961841436023</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -7972,7 +7982,7 @@
         <v>0.66099736328992964</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -7983,7 +7993,7 @@
         <v>-1.0886203819804758</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -7994,7 +8004,7 @@
         <v>-1.1840696799370249</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -8005,7 +8015,7 @@
         <v>0.16472730710687128</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -8016,7 +8026,7 @@
         <v>-0.99024095584666594</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>0.33782008543838227</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -8051,7 +8061,7 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8064,17 +8074,17 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -8094,7 +8104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>+B2</f>
         <v>Aberdeen</v>
@@ -8119,7 +8129,7 @@
         <v>-0.19748590165285282</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
@@ -8140,7 +8150,7 @@
         <v>0.90430188411629031</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>+B4</f>
         <v>Barnsley</v>
@@ -8165,7 +8175,7 @@
         <v>-1.3832138083957737</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>195</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>-0.37154168393379439</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>178</v>
       </c>
@@ -8207,7 +8217,7 @@
         <v>-0.43999349322475401</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>173</v>
       </c>
@@ -8228,7 +8238,7 @@
         <v>-0.76544111996291875</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>169</v>
       </c>
@@ -8249,7 +8259,7 @@
         <v>-0.60602339013726625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>184</v>
       </c>
@@ -8270,7 +8280,7 @@
         <v>-0.77453305363552416</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>+B10</f>
         <v>Bournemouth</v>
@@ -8295,7 +8305,7 @@
         <v>0.33383764379498709</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>166</v>
       </c>
@@ -8308,15 +8318,15 @@
         <v>-0.75241561036659588</v>
       </c>
       <c r="E11" s="3">
-        <f>+VLOOKUP($B11,'ECI 2019'!$A$2:$C$62,2,FALSE)</f>
-        <v>-0.72878689450205558</v>
+        <f>+VLOOKUP($B12,'ECI 2019'!$A$2:$C$62,2,FALSE)</f>
+        <v>2.5345896077356578</v>
       </c>
       <c r="F11" s="3">
         <f>+VLOOKUP($B11,'ECI 2019'!$A$2:$C$62,3,FALSE)</f>
         <v>-0.96781765326728797</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>+B12</f>
         <v>Brighton</v>
@@ -8341,7 +8351,7 @@
         <v>1.6669461168057351</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>192</v>
       </c>
@@ -8362,7 +8372,7 @@
         <v>1.0624583237024592</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>158</v>
       </c>
@@ -8383,7 +8393,7 @@
         <v>-1.0069332815101679</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>+B15</f>
         <v>Cambridge</v>
@@ -8408,7 +8418,7 @@
         <v>1.8491946087239033</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>185</v>
       </c>
@@ -8429,7 +8439,7 @@
         <v>0.9542555341661787</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>162</v>
       </c>
@@ -8450,7 +8460,7 @@
         <v>-0.72304559916793065</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>205</v>
       </c>
@@ -8471,7 +8481,7 @@
         <v>1.1036216774057213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>167</v>
       </c>
@@ -8492,7 +8502,7 @@
         <v>-1.0582961303523823</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>155</v>
       </c>
@@ -8513,7 +8523,7 @@
         <v>-1.0137647209873355</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>172</v>
       </c>
@@ -8534,7 +8544,7 @@
         <v>0.31088750104758317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>207</v>
       </c>
@@ -8555,7 +8565,7 @@
         <v>2.1902356638507969</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>198</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>0.51107860777053005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>+B24</f>
         <v>Glasgow</v>
@@ -8601,7 +8611,7 @@
         <v>1.4415502594991065</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>189</v>
       </c>
@@ -8622,7 +8632,7 @@
         <v>-0.42770442876891379</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>157</v>
       </c>
@@ -8643,7 +8653,7 @@
         <v>-1.3196078395639765</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>175</v>
       </c>
@@ -8664,7 +8674,7 @@
         <v>-0.90002293361971519</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>197</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>0.33584738349943738</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>+B29</f>
         <v>Leeds</v>
@@ -8710,7 +8720,7 @@
         <v>0.88097455141053349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>182</v>
       </c>
@@ -8731,7 +8741,7 @@
         <v>-0.70425373926491663</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>+B31</f>
         <v>Liverpool</v>
@@ -8756,7 +8766,7 @@
         <v>0.42078225507879308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>+B32</f>
         <v>London</v>
@@ -8781,7 +8791,7 @@
         <v>2.9607452408322366</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>+B33</f>
         <v>Luton</v>
@@ -8806,7 +8816,7 @@
         <v>-2.1891861603829704E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>+B34</f>
         <v>Manchester</v>
@@ -8831,7 +8841,7 @@
         <v>0.40893427072680272</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>154</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>-0.96442320819758076</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>171</v>
       </c>
@@ -8873,7 +8883,7 @@
         <v>-1.1815674261365081</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>+B37</f>
         <v>Milton Keynes</v>
@@ -8898,7 +8908,7 @@
         <v>0.12614537542789361</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>168</v>
       </c>
@@ -8919,7 +8929,7 @@
         <v>-0.43006704137495949</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>181</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>-0.90241092150438984</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>+B40</f>
         <v>Northampton</v>
@@ -8965,7 +8975,7 @@
         <v>-0.41254850898521822</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>200</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>0.12510075611661711</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>+B42</f>
         <v>Nottingham</v>
@@ -9011,7 +9021,7 @@
         <v>3.3186867201585743E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>206</v>
       </c>
@@ -9032,7 +9042,7 @@
         <v>1.9471416189454371</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>193</v>
       </c>
@@ -9053,7 +9063,7 @@
         <v>0.40532386021013644</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>194</v>
       </c>
@@ -9074,7 +9084,7 @@
         <v>-0.42099673511185454</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>187</v>
       </c>
@@ -9095,7 +9105,7 @@
         <v>0.20983203021713787</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>176</v>
       </c>
@@ -9116,7 +9126,7 @@
         <v>-0.63083710569310802</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>+B48</f>
         <v>Reading</v>
@@ -9141,7 +9151,7 @@
         <v>1.8229969594229194</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>+B49</f>
         <v>Sheffield</v>
@@ -9166,7 +9176,7 @@
         <v>-0.76014818076301149</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>204</v>
       </c>
@@ -9187,7 +9197,7 @@
         <v>0.80608998773252527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>199</v>
       </c>
@@ -9208,7 +9218,7 @@
         <v>0.17259214433421882</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>203</v>
       </c>
@@ -9229,7 +9239,7 @@
         <v>2.8019988682130931E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>159</v>
       </c>
@@ -9250,7 +9260,7 @@
         <v>-1.3449472929733948</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>+B54</f>
         <v>Sunderland</v>
@@ -9275,7 +9285,7 @@
         <v>-0.9817179928003491</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>+B55</f>
         <v>Swansea</v>
@@ -9300,7 +9310,7 @@
         <v>-1.1181961841436023</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>191</v>
       </c>
@@ -9321,7 +9331,7 @@
         <v>0.66099736328992964</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>179</v>
       </c>
@@ -9342,7 +9352,7 @@
         <v>-1.0886203819804758</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>152</v>
       </c>
@@ -9363,7 +9373,7 @@
         <v>-1.1840696799370249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>164</v>
       </c>
@@ -9384,7 +9394,7 @@
         <v>0.16472730710687128</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>+B60</f>
         <v>Wigan</v>
@@ -9409,7 +9419,7 @@
         <v>-0.99024095584666594</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>209</v>
       </c>
@@ -9430,7 +9440,7 @@
         <v>0.33782008543838227</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>+B62</f>
         <v>York</v>
@@ -9472,9 +9482,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -9485,7 +9495,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>186</v>
       </c>
@@ -9497,7 +9507,7 @@
         <v>66091</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>210</v>
       </c>
@@ -9509,7 +9519,7 @@
         <v>71278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -9521,7 +9531,7 @@
         <v>52929</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
@@ -9533,7 +9543,7 @@
         <v>74161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>178</v>
       </c>
@@ -9545,7 +9555,7 @@
         <v>57519</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>173</v>
       </c>
@@ -9557,7 +9567,7 @@
         <v>60695</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>169</v>
       </c>
@@ -9569,7 +9579,7 @@
         <v>48736</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>184</v>
       </c>
@@ -9581,7 +9591,7 @@
         <v>52699</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>202</v>
       </c>
@@ -9593,7 +9603,7 @@
         <v>60187</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>166</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>53571</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -9617,7 +9627,7 @@
         <v>65994</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>192</v>
       </c>
@@ -9629,7 +9639,7 @@
         <v>66934</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -9641,7 +9651,7 @@
         <v>67507</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>212</v>
       </c>
@@ -9653,7 +9663,7 @@
         <v>59751</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -9665,7 +9675,7 @@
         <v>59926</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>162</v>
       </c>
@@ -9677,7 +9687,7 @@
         <v>63884</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>205</v>
       </c>
@@ -9689,7 +9699,7 @@
         <v>66063</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>167</v>
       </c>
@@ -9701,7 +9711,7 @@
         <v>57043</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>155</v>
       </c>
@@ -9713,7 +9723,7 @@
         <v>53298</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
@@ -9725,7 +9735,7 @@
         <v>52143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>207</v>
       </c>
@@ -9737,7 +9747,7 @@
         <v>75134</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9759,7 @@
         <v>61058</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>174</v>
       </c>
@@ -9761,7 +9771,7 @@
         <v>54306</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>189</v>
       </c>
@@ -9773,7 +9783,7 @@
         <v>55256</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -9785,7 +9795,7 @@
         <v>53463</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>175</v>
       </c>
@@ -9797,7 +9807,7 @@
         <v>53796</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>197</v>
       </c>
@@ -9809,7 +9819,7 @@
         <v>75116</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>177</v>
       </c>
@@ -9821,7 +9831,7 @@
         <v>60325</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>182</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>57523</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>161</v>
       </c>
@@ -9845,7 +9855,7 @@
         <v>59862</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>211</v>
       </c>
@@ -9857,7 +9867,7 @@
         <v>91297</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>196</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>80903</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>165</v>
       </c>
@@ -9881,7 +9891,7 @@
         <v>58070</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>154</v>
       </c>
@@ -9893,7 +9903,7 @@
         <v>49689</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
@@ -9905,7 +9915,7 @@
         <v>61795</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>183</v>
       </c>
@@ -9917,7 +9927,7 @@
         <v>84784</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>168</v>
       </c>
@@ -9929,7 +9939,7 @@
         <v>53474</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>181</v>
       </c>
@@ -9941,7 +9951,7 @@
         <v>52017</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>188</v>
       </c>
@@ -9953,7 +9963,7 @@
         <v>60379</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>200</v>
       </c>
@@ -9965,7 +9975,7 @@
         <v>57842</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>160</v>
       </c>
@@ -9977,7 +9987,7 @@
         <v>58064</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>206</v>
       </c>
@@ -9989,7 +9999,7 @@
         <v>52171</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>193</v>
       </c>
@@ -10001,7 +10011,7 @@
         <v>61356</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>194</v>
       </c>
@@ -10013,7 +10023,7 @@
         <v>55423</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>187</v>
       </c>
@@ -10025,7 +10035,7 @@
         <v>61453</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>176</v>
       </c>
@@ -10037,7 +10047,7 @@
         <v>66677</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>208</v>
       </c>
@@ -10049,7 +10059,7 @@
         <v>83801</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>163</v>
       </c>
@@ -10061,7 +10071,7 @@
         <v>53786</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>204</v>
       </c>
@@ -10073,7 +10083,7 @@
         <v>99988</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>199</v>
       </c>
@@ -10085,7 +10095,7 @@
         <v>71760</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>203</v>
       </c>
@@ -10097,7 +10107,7 @@
         <v>54547</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>159</v>
       </c>
@@ -10109,7 +10119,7 @@
         <v>61359</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -10121,7 +10131,7 @@
         <v>68795</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>190</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>56475</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>191</v>
       </c>
@@ -10145,7 +10155,7 @@
         <v>86814</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>179</v>
       </c>
@@ -10157,7 +10167,7 @@
         <v>61554</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>152</v>
       </c>
@@ -10169,7 +10179,7 @@
         <v>55226</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>164</v>
       </c>
@@ -10181,7 +10191,7 @@
         <v>59670</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>156</v>
       </c>
@@ -10193,7 +10203,7 @@
         <v>55364</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>209</v>
       </c>
@@ -10205,7 +10215,7 @@
         <v>81265</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>180</v>
       </c>
@@ -10231,7 +10241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
